--- a/office/Zeitplan_Gr_G_Partyspot_Gubbauer_Haindl_Weghofer_aktuell.xlsx
+++ b/office/Zeitplan_Gr_G_Partyspot_Gubbauer_Haindl_Weghofer_aktuell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1B429-72F6-4A90-B502-93A825B30E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0A8FF-FAA1-4EC7-BBD8-ECFA896225BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$J$2" max="110" min="1" page="10" val="55"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$J$2" max="110" min="1" page="10" val="69"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:DP47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="15">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="38" t="s">
@@ -2828,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8">
         <v>0.5</v>
@@ -2851,9 +2851,15 @@
       <c r="F9" s="7">
         <v>20</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="7">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
@@ -2951,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3099,9 +3105,15 @@
       <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="7">
+        <v>60</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
@@ -3442,10 +3454,10 @@
         <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I33" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3470,7 +3482,7 @@
         <v>49</v>
       </c>
       <c r="H34" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8">
         <v>1</v>
@@ -3597,10 +3609,10 @@
         <v>52</v>
       </c>
       <c r="H39" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I39" s="8">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/office/Zeitplan_Gr_G_Partyspot_Gubbauer_Haindl_Weghofer_aktuell.xlsx
+++ b/office/Zeitplan_Gr_G_Partyspot_Gubbauer_Haindl_Weghofer_aktuell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12273A-D46A-4296-8756-E957D3DFFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3360FE5-2F99-4DC4-B75B-6173B008449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
     <t>LBS Eibiswald -  Partyspot</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$J$2" max="110" min="1" page="10" val="65"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$J$2" max="110" min="1" page="10" val="89"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,15 +2248,15 @@
   </sheetPr>
   <dimension ref="A1:DP47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:XFD23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
     <col min="5" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="4" customWidth="1"/>
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="30">
-        <v>44697</v>
+        <v>44736</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>12</v>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="15">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="38" t="s">
@@ -2828,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8">
         <v>0.5</v>
@@ -2855,10 +2855,10 @@
         <v>55</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2930,9 +2930,15 @@
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="7">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7">
+        <v>18</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="13" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
@@ -3003,9 +3009,15 @@
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="7">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
@@ -3055,7 +3067,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -3112,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3556,9 +3568,15 @@
       <c r="F37" s="7">
         <v>3</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="7">
+        <v>79</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
@@ -3633,9 +3651,15 @@
       <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="7">
+        <v>86</v>
+      </c>
+      <c r="H40" s="7">
+        <v>3</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
@@ -3677,9 +3701,15 @@
       <c r="F42" s="7">
         <v>3</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="7">
+        <v>83</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
